--- a/_PJ/20241114_1113-山鹿市 _ がん検診等希望調査票/令和７年度希望調査対象者名簿一覧/02_本番データ/■名簿振り分け表_v2.xlsx
+++ b/_PJ/20241114_1113-山鹿市 _ がん検診等希望調査票/令和７年度希望調査対象者名簿一覧/02_本番データ/■名簿振り分け表_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\【Git】ShimodaPrint\_PJ\20241114_1113-山鹿市 _ がん検診等希望調査票\令和７年度希望調査対象者名簿一覧\02_本番データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6214FAA-F5E7-48AC-BD1B-D886E29DF2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1447DB24-3FD3-48B0-9BEE-452B2E0C160C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="195">
   <si>
     <t>山鹿市 がん検診等希望調査票　段ボール振り分け票</t>
     <rPh sb="0" eb="2">
@@ -675,6 +675,16 @@
   </si>
   <si>
     <t>菊鹿郵便局分　〒861-04</t>
+  </si>
+  <si>
+    <t>除外数</t>
+    <rPh sb="0" eb="2">
+      <t>ジョガイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -828,7 +838,35 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCECFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1145,7 +1183,7 @@
   <dimension ref="A1:L95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="H4" sqref="H4:H94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1197,6 +1235,9 @@
       <c r="G3" s="12" t="s">
         <v>2</v>
       </c>
+      <c r="H3" s="12" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="4" spans="1:12" ht="24.95" customHeight="1">
       <c r="A4" s="6">
@@ -1220,6 +1261,7 @@
       <c r="G4" s="3">
         <v>450</v>
       </c>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:12" ht="24.95" customHeight="1">
       <c r="A5" s="6">
@@ -1244,6 +1286,7 @@
       <c r="G5" s="3">
         <v>450</v>
       </c>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:12" ht="24.95" customHeight="1">
       <c r="A6" s="6">
@@ -1268,6 +1311,7 @@
       <c r="G6" s="3">
         <v>450</v>
       </c>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:12" ht="24.95" customHeight="1">
       <c r="A7" s="6">
@@ -1292,6 +1336,7 @@
       <c r="G7" s="3">
         <v>450</v>
       </c>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:12" ht="24.95" customHeight="1">
       <c r="A8" s="6">
@@ -1316,6 +1361,7 @@
       <c r="G8" s="3">
         <v>450</v>
       </c>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:12" ht="24.95" customHeight="1">
       <c r="A9" s="6">
@@ -1340,6 +1386,7 @@
       <c r="G9" s="3">
         <v>450</v>
       </c>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:12" ht="24.95" customHeight="1">
       <c r="A10" s="6">
@@ -1364,6 +1411,7 @@
       <c r="G10" s="3">
         <v>450</v>
       </c>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:12" ht="24.95" customHeight="1">
       <c r="A11" s="6">
@@ -1388,6 +1436,7 @@
       <c r="G11" s="3">
         <v>450</v>
       </c>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:12" ht="24.95" customHeight="1">
       <c r="A12" s="6">
@@ -1412,6 +1461,7 @@
       <c r="G12" s="3">
         <v>450</v>
       </c>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:12" ht="24.95" customHeight="1">
       <c r="A13" s="6">
@@ -1436,6 +1486,7 @@
       <c r="G13" s="3">
         <v>450</v>
       </c>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:12" ht="24.95" customHeight="1">
       <c r="A14" s="6">
@@ -1460,6 +1511,7 @@
       <c r="G14" s="3">
         <v>450</v>
       </c>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:12" ht="24.95" customHeight="1">
       <c r="A15" s="6">
@@ -1484,6 +1536,7 @@
       <c r="G15" s="3">
         <v>450</v>
       </c>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:12" ht="24.95" customHeight="1">
       <c r="A16" s="6">
@@ -1508,8 +1561,9 @@
       <c r="G16" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" ht="24.95" customHeight="1">
       <c r="A17" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1532,8 +1586,9 @@
       <c r="G17" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" ht="24.95" customHeight="1">
       <c r="A18" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1556,8 +1611,9 @@
       <c r="G18" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" ht="24.95" customHeight="1">
       <c r="A19" s="6">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1580,8 +1636,9 @@
       <c r="G19" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" ht="24.95" customHeight="1">
       <c r="A20" s="6">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1604,8 +1661,9 @@
       <c r="G20" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" ht="24.95" customHeight="1">
       <c r="A21" s="6">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1628,8 +1686,9 @@
       <c r="G21" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="24.95" customHeight="1" thickBot="1">
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" ht="24.95" customHeight="1" thickBot="1">
       <c r="A22" s="9">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1652,8 +1711,9 @@
       <c r="G22" s="10">
         <v>185</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="24.95" customHeight="1" thickTop="1">
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="1:8" ht="24.95" customHeight="1" thickTop="1">
       <c r="A23" s="7">
         <v>1</v>
       </c>
@@ -1675,8 +1735,9 @@
       <c r="G23" s="8">
         <v>450</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="1:8" ht="24.95" customHeight="1">
       <c r="A24" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1699,8 +1760,9 @@
       <c r="G24" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" ht="24.95" customHeight="1">
       <c r="A25" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1723,8 +1785,9 @@
       <c r="G25" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" ht="24.95" customHeight="1">
       <c r="A26" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1747,8 +1810,9 @@
       <c r="G26" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" ht="24.95" customHeight="1">
       <c r="A27" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1771,8 +1835,9 @@
       <c r="G27" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" ht="24.95" customHeight="1">
       <c r="A28" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1795,8 +1860,9 @@
       <c r="G28" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" ht="24.95" customHeight="1">
       <c r="A29" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1819,8 +1885,9 @@
       <c r="G29" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" ht="24.95" customHeight="1">
       <c r="A30" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1843,8 +1910,9 @@
       <c r="G30" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" ht="24.95" customHeight="1">
       <c r="A31" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1867,8 +1935,9 @@
       <c r="G31" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="24.95" customHeight="1" thickBot="1">
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" ht="24.95" customHeight="1" thickBot="1">
       <c r="A32" s="9">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1891,8 +1960,9 @@
       <c r="G32" s="10">
         <v>385</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="24.95" customHeight="1" thickTop="1">
+      <c r="H32" s="10"/>
+    </row>
+    <row r="33" spans="1:8" ht="24.95" customHeight="1" thickTop="1">
       <c r="A33" s="7">
         <v>1</v>
       </c>
@@ -1914,8 +1984,9 @@
       <c r="G33" s="8">
         <v>450</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="1:8" ht="24.95" customHeight="1">
       <c r="A34" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1938,8 +2009,9 @@
       <c r="G34" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:8" ht="24.95" customHeight="1">
       <c r="A35" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1962,8 +2034,9 @@
       <c r="G35" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:8" ht="24.95" customHeight="1">
       <c r="A36" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1986,8 +2059,9 @@
       <c r="G36" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="1:8" ht="24.95" customHeight="1">
       <c r="A37" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2010,8 +2084,9 @@
       <c r="G37" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="1:8" ht="24.95" customHeight="1">
       <c r="A38" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2034,8 +2109,9 @@
       <c r="G38" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="1:8" ht="24.95" customHeight="1">
       <c r="A39" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2058,8 +2134,9 @@
       <c r="G39" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="1:8" ht="24.95" customHeight="1">
       <c r="A40" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2082,8 +2159,9 @@
       <c r="G40" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="1:8" ht="24.95" customHeight="1">
       <c r="A41" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2106,8 +2184,9 @@
       <c r="G41" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="1:8" ht="24.95" customHeight="1">
       <c r="A42" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2130,8 +2209,9 @@
       <c r="G42" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="1:8" ht="24.95" customHeight="1">
       <c r="A43" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2154,8 +2234,9 @@
       <c r="G43" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:8" ht="24.95" customHeight="1">
       <c r="A44" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2178,8 +2259,9 @@
       <c r="G44" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:8" ht="24.95" customHeight="1">
       <c r="A45" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2202,8 +2284,9 @@
       <c r="G45" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="1:8" ht="24.95" customHeight="1">
       <c r="A46" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2226,8 +2309,9 @@
       <c r="G46" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="1:8" ht="24.95" customHeight="1">
       <c r="A47" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2250,8 +2334,9 @@
       <c r="G47" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="1:8" ht="24.95" customHeight="1">
       <c r="A48" s="6">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2274,8 +2359,9 @@
       <c r="G48" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="1:8" ht="24.95" customHeight="1">
       <c r="A49" s="6">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2298,8 +2384,9 @@
       <c r="G49" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="1:8" ht="24.95" customHeight="1">
       <c r="A50" s="6">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2322,8 +2409,9 @@
       <c r="G50" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="1:8" ht="24.95" customHeight="1">
       <c r="A51" s="6">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2346,8 +2434,9 @@
       <c r="G51" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="1:8" ht="24.95" customHeight="1">
       <c r="A52" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2370,8 +2459,9 @@
       <c r="G52" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="1:8" ht="24.95" customHeight="1">
       <c r="A53" s="6">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2394,8 +2484,9 @@
       <c r="G53" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H53" s="3"/>
+    </row>
+    <row r="54" spans="1:8" ht="24.95" customHeight="1">
       <c r="A54" s="6">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2418,8 +2509,9 @@
       <c r="G54" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="1:8" ht="24.95" customHeight="1">
       <c r="A55" s="6">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2442,8 +2534,9 @@
       <c r="G55" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="1:8" ht="24.95" customHeight="1">
       <c r="A56" s="6">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2466,8 +2559,9 @@
       <c r="G56" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="1:8" ht="24.95" customHeight="1">
       <c r="A57" s="6">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2490,8 +2584,9 @@
       <c r="G57" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H57" s="3"/>
+    </row>
+    <row r="58" spans="1:8" ht="24.95" customHeight="1">
       <c r="A58" s="6">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2514,8 +2609,9 @@
       <c r="G58" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H58" s="3"/>
+    </row>
+    <row r="59" spans="1:8" ht="24.95" customHeight="1">
       <c r="A59" s="6">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2538,8 +2634,9 @@
       <c r="G59" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="1:8" ht="24.95" customHeight="1">
       <c r="A60" s="6">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2562,8 +2659,9 @@
       <c r="G60" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H60" s="3"/>
+    </row>
+    <row r="61" spans="1:8" ht="24.95" customHeight="1">
       <c r="A61" s="6">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2586,8 +2684,9 @@
       <c r="G61" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H61" s="3"/>
+    </row>
+    <row r="62" spans="1:8" ht="24.95" customHeight="1">
       <c r="A62" s="6">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2610,8 +2709,9 @@
       <c r="G62" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H62" s="3"/>
+    </row>
+    <row r="63" spans="1:8" ht="24.95" customHeight="1">
       <c r="A63" s="6">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2634,8 +2734,9 @@
       <c r="G63" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H63" s="3"/>
+    </row>
+    <row r="64" spans="1:8" ht="24.95" customHeight="1">
       <c r="A64" s="6">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2658,8 +2759,9 @@
       <c r="G64" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H64" s="3"/>
+    </row>
+    <row r="65" spans="1:8" ht="24.95" customHeight="1">
       <c r="A65" s="6">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2682,8 +2784,9 @@
       <c r="G65" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H65" s="3"/>
+    </row>
+    <row r="66" spans="1:8" ht="24.95" customHeight="1">
       <c r="A66" s="6">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2706,8 +2809,9 @@
       <c r="G66" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H66" s="3"/>
+    </row>
+    <row r="67" spans="1:8" ht="24.95" customHeight="1">
       <c r="A67" s="6">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2730,8 +2834,9 @@
       <c r="G67" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H67" s="3"/>
+    </row>
+    <row r="68" spans="1:8" ht="24.95" customHeight="1">
       <c r="A68" s="6">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2754,8 +2859,9 @@
       <c r="G68" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H68" s="3"/>
+    </row>
+    <row r="69" spans="1:8" ht="24.95" customHeight="1">
       <c r="A69" s="6">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2778,8 +2884,9 @@
       <c r="G69" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H69" s="3"/>
+    </row>
+    <row r="70" spans="1:8" ht="24.95" customHeight="1">
       <c r="A70" s="6">
         <f t="shared" ref="A70:A94" si="1">A69+1</f>
         <v>38</v>
@@ -2802,8 +2909,9 @@
       <c r="G70" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H70" s="3"/>
+    </row>
+    <row r="71" spans="1:8" ht="24.95" customHeight="1">
       <c r="A71" s="6">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -2826,8 +2934,9 @@
       <c r="G71" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H71" s="3"/>
+    </row>
+    <row r="72" spans="1:8" ht="24.95" customHeight="1">
       <c r="A72" s="6">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -2850,8 +2959,9 @@
       <c r="G72" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H72" s="3"/>
+    </row>
+    <row r="73" spans="1:8" ht="24.95" customHeight="1">
       <c r="A73" s="6">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -2874,8 +2984,9 @@
       <c r="G73" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H73" s="3"/>
+    </row>
+    <row r="74" spans="1:8" ht="24.95" customHeight="1">
       <c r="A74" s="6">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -2898,8 +3009,9 @@
       <c r="G74" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H74" s="3"/>
+    </row>
+    <row r="75" spans="1:8" ht="24.95" customHeight="1">
       <c r="A75" s="6">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -2922,8 +3034,9 @@
       <c r="G75" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H75" s="3"/>
+    </row>
+    <row r="76" spans="1:8" ht="24.95" customHeight="1">
       <c r="A76" s="6">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -2946,8 +3059,9 @@
       <c r="G76" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H76" s="3"/>
+    </row>
+    <row r="77" spans="1:8" ht="24.95" customHeight="1">
       <c r="A77" s="6">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -2970,8 +3084,9 @@
       <c r="G77" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H77" s="3"/>
+    </row>
+    <row r="78" spans="1:8" ht="24.95" customHeight="1">
       <c r="A78" s="6">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -2994,8 +3109,9 @@
       <c r="G78" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H78" s="3"/>
+    </row>
+    <row r="79" spans="1:8" ht="24.95" customHeight="1">
       <c r="A79" s="6">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -3018,8 +3134,9 @@
       <c r="G79" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H79" s="3"/>
+    </row>
+    <row r="80" spans="1:8" ht="24.95" customHeight="1">
       <c r="A80" s="6">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -3042,8 +3159,9 @@
       <c r="G80" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H80" s="3"/>
+    </row>
+    <row r="81" spans="1:8" ht="24.95" customHeight="1">
       <c r="A81" s="6">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -3066,8 +3184,9 @@
       <c r="G81" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H81" s="3"/>
+    </row>
+    <row r="82" spans="1:8" ht="24.95" customHeight="1">
       <c r="A82" s="6">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -3090,8 +3209,9 @@
       <c r="G82" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H82" s="3"/>
+    </row>
+    <row r="83" spans="1:8" ht="24.95" customHeight="1">
       <c r="A83" s="6">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -3114,8 +3234,9 @@
       <c r="G83" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H83" s="3"/>
+    </row>
+    <row r="84" spans="1:8" ht="24.95" customHeight="1">
       <c r="A84" s="6">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -3138,8 +3259,9 @@
       <c r="G84" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H84" s="3"/>
+    </row>
+    <row r="85" spans="1:8" ht="24.95" customHeight="1">
       <c r="A85" s="6">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -3162,8 +3284,9 @@
       <c r="G85" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H85" s="3"/>
+    </row>
+    <row r="86" spans="1:8" ht="24.95" customHeight="1">
       <c r="A86" s="6">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -3186,8 +3309,9 @@
       <c r="G86" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" ht="24.95" customHeight="1" thickBot="1">
+      <c r="H86" s="3"/>
+    </row>
+    <row r="87" spans="1:8" ht="24.95" customHeight="1" thickBot="1">
       <c r="A87" s="9">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -3210,8 +3334,9 @@
       <c r="G87" s="10">
         <v>163</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" ht="24.95" customHeight="1" thickTop="1">
+      <c r="H87" s="10"/>
+    </row>
+    <row r="88" spans="1:8" ht="24.95" customHeight="1" thickTop="1">
       <c r="A88" s="7">
         <v>1</v>
       </c>
@@ -3233,8 +3358,9 @@
       <c r="G88" s="8">
         <v>450</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H88" s="8"/>
+    </row>
+    <row r="89" spans="1:8" ht="24.95" customHeight="1">
       <c r="A89" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -3257,8 +3383,9 @@
       <c r="G89" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H89" s="3"/>
+    </row>
+    <row r="90" spans="1:8" ht="24.95" customHeight="1">
       <c r="A90" s="6">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -3281,8 +3408,9 @@
       <c r="G90" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H90" s="3"/>
+    </row>
+    <row r="91" spans="1:8" ht="24.95" customHeight="1">
       <c r="A91" s="6">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -3305,8 +3433,9 @@
       <c r="G91" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H91" s="3"/>
+    </row>
+    <row r="92" spans="1:8" ht="24.95" customHeight="1">
       <c r="A92" s="6">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -3329,8 +3458,9 @@
       <c r="G92" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" ht="24.95" customHeight="1">
+      <c r="H92" s="3"/>
+    </row>
+    <row r="93" spans="1:8" ht="24.95" customHeight="1">
       <c r="A93" s="6">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -3353,8 +3483,9 @@
       <c r="G93" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" ht="24.95" customHeight="1" thickBot="1">
+      <c r="H93" s="3"/>
+    </row>
+    <row r="94" spans="1:8" ht="24.95" customHeight="1" thickBot="1">
       <c r="A94" s="9">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -3377,21 +3508,36 @@
       <c r="G94" s="10">
         <v>129</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" ht="16.5" thickTop="1"/>
+      <c r="H94" s="10"/>
+    </row>
+    <row r="95" spans="1:8" ht="16.5" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="B4:G94">
-    <cfRule type="expression" dxfId="3" priority="9">
+    <cfRule type="expression" dxfId="7" priority="13">
       <formula>$C4=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="10">
+    <cfRule type="expression" dxfId="6" priority="14">
       <formula>$C4=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="11">
+    <cfRule type="expression" dxfId="5" priority="15">
       <formula>$C4=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="12">
+    <cfRule type="expression" dxfId="4" priority="16">
+      <formula>$C4=2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H94">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>$C4=4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>$C4=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>$C4=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>$C4=2</formula>
     </cfRule>
   </conditionalFormatting>
